--- a/biology/Médecine/1873_en_santé_et_médecine/1873_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1873_en_santé_et_médecine/1873_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1873_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1873_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1873 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1873_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1873_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,18 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>États-Unis
-3 mars : le Congrès américain adopte le Comstock Act, loi fédérale qui porte « suppression du commerce et de la circulation de la littérature obscène et des articles à usage immoral », et où les notions d'« obscénité » et d'« immoralité », ne s'appliquent pas seulement au stupre ou à la pornographie, mais aussi, et explicitement, à la contraception et à l'avortement[1],[2].
+3 mars : le Congrès américain adopte le Comstock Act, loi fédérale qui porte « suppression du commerce et de la circulation de la littérature obscène et des articles à usage immoral », et où les notions d'« obscénité » et d'« immoralité », ne s'appliquent pas seulement au stupre ou à la pornographie, mais aussi, et explicitement, à la contraception et à l'avortement,.
 France
-2 et 6 janvier : l'empereur Napoléon III est opéré d'une lithiase urinaire par le chirurgien anglais Henry Thomson[3].
+2 et 6 janvier : l'empereur Napoléon III est opéré d'une lithiase urinaire par le chirurgien anglais Henry Thomson.
 Italie
-Le médecin italien Camillo Golgi découvre une méthode pour étudier les fibres nerveuses : la « réaction noire » qui portera le nom de méthode de Golgi[4].
+Le médecin italien Camillo Golgi découvre une méthode pour étudier les fibres nerveuses : la « réaction noire » qui portera le nom de méthode de Golgi.
 Norvège
-Le médecin norvégien Gerhard Hansen identifie Mycobacterium leprae, responsable de la lèpre[5].</t>
+Le médecin norvégien Gerhard Hansen identifie Mycobacterium leprae, responsable de la lèpre.</t>
         </is>
       </c>
     </row>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1873_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1873_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>13 mai : Henri Hérissey (mort en 1959), pharmacien et chimiste français.
 21 mai : Hans Berger (mort en 1941), neurologue allemand, considéré comme le père de l'électroencéphalographie.
@@ -571,7 +587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1873_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1873_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -589,10 +605,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>8 mars : Jules Lemaire (né en 1814), médecin et pharmacien français.
-30 mars : Bénédict Morel (né en 1809), psychiatre franco-autrichien[6].
+30 mars : Bénédict Morel (né en 1809), psychiatre franco-autrichien.
 10 mars : John Torrey (né en 1796), médecin, chimiste et botaniste américain.
 11 novembre : Charles-Auguste Yvart (né en 1798), vétérinaire français.
 14 décembre : Louis Agassiz (né en 1807), médecin, zoologiste et géologue américano-suisse.</t>
